--- a/TABLAS/Tablas.xlsx
+++ b/TABLAS/Tablas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="206">
   <si>
     <t>Tipo Clave</t>
   </si>
@@ -634,6 +634,15 @@
   </si>
   <si>
     <t>Fecha de la venta</t>
+  </si>
+  <si>
+    <t>dia_venta</t>
+  </si>
+  <si>
+    <t>Dia deVenta</t>
+  </si>
+  <si>
+    <t>Dia de la semana dela venta.</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:B81"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,8 +2130,32 @@
         <v>202</v>
       </c>
     </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="A72:E72"/>
@@ -2132,15 +2165,6 @@
     <mergeCell ref="A46:E46"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2853,12 +2877,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A50:E50"/>
@@ -2868,6 +2886,12 @@
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
